--- a/docs/Workbook1 (version 1).xlsx
+++ b/docs/Workbook1 (version 1).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-200" yWindow="560" windowWidth="25600" windowHeight="13580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>Demos</t>
   </si>
@@ -203,13 +204,163 @@
   </si>
   <si>
     <t xml:space="preserve">    orders POST   /orders(.:format)         orders#create</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Miscrosoft</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Ritual</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>Footbook</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>LHL Demo Day</t>
+  </si>
+  <si>
+    <t>Brainstation Demo Day</t>
+  </si>
+  <si>
+    <t>Fullstack Demo Day</t>
+  </si>
+  <si>
+    <t>Hackreactor</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>Twillio</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Craigslist</t>
+  </si>
+  <si>
+    <t>Palintir</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Zynga</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Fanatics</t>
+  </si>
+  <si>
+    <t>https://a16z.com/portfolio/</t>
+  </si>
+  <si>
+    <t>Houzz</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>Tulip</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>Indiegogo</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Modified?</t>
+  </si>
+  <si>
+    <t>Liveevents:</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +380,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -271,24 +429,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -819,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G23" sqref="C23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -952,6 +1139,8 @@
       </c>
     </row>
     <row r="22" spans="2:4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>58</v>
       </c>
@@ -964,6 +1153,265 @@
     <row r="24" spans="2:4">
       <c r="D24" t="s">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="5:10">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10">
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
